--- a/strassenruntimes.xlsx
+++ b/strassenruntimes.xlsx
@@ -444,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/strassenruntimes.xlsx
+++ b/strassenruntimes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>c</t>
   </si>
@@ -37,10 +37,16 @@
     <t xml:space="preserve"> yeah that's about 2.9</t>
   </si>
   <si>
-    <t>f(x)=(1/2000000)(x^(2.9)+7.5x^2)</t>
-  </si>
-  <si>
     <t>although the x^2 term doesn't really matter in the long run</t>
+  </si>
+  <si>
+    <t>f(x)=(1/3400000)(x^(2.97)+2.25x^2)</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>optimal fit</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,28 +458,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>128</v>
       </c>
       <c r="B1">
         <f>A1^(H1)+A1*A1*H4</f>
-        <v>1413828.4843675578</v>
+        <v>897270.99999999942</v>
       </c>
       <c r="C1">
         <f>B1/H3</f>
-        <v>0.70691424218377885</v>
+        <v>0.89727099999999937</v>
       </c>
       <c r="E1">
         <v>0.74109999999999998</v>
@@ -482,104 +489,120 @@
         <v>2</v>
       </c>
       <c r="H1">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <f>LN(7)/LN(2)</f>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="I1">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>256</v>
       </c>
       <c r="B2">
         <f>A2^(H1)+A2*A2*H4</f>
-        <v>10127500.210314954</v>
+        <v>6059712.9999999963</v>
       </c>
       <c r="C2">
         <f>B2/H3</f>
-        <v>5.0637501051574771</v>
+        <v>6.0597129999999959</v>
       </c>
       <c r="E2">
         <v>5.1135999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>512</v>
       </c>
       <c r="B3">
         <f>A3^(H1)+A3*A3*H4</f>
-        <v>73891579.536157161</v>
+        <v>41533254.999999985</v>
       </c>
       <c r="C3">
         <f>B3/H3</f>
-        <v>36.945789768078583</v>
+        <v>41.533254999999983</v>
       </c>
       <c r="E3">
         <v>35.366700000000002</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1000000</v>
+      </c>
+      <c r="I3">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1024</v>
       </c>
       <c r="B4">
         <f>A4^(H1)+A4*A4*H4</f>
-        <v>544735232.00000036</v>
+        <v>287193841.00000042</v>
       </c>
       <c r="C4">
         <f>B4/H3</f>
-        <v>272.36761600000017</v>
+        <v>287.19384100000042</v>
       </c>
       <c r="E4">
         <v>258.52800000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>4.5</v>
+      </c>
+      <c r="I4">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2048</v>
       </c>
       <c r="B5">
         <f>A5^(H1)+A5*A5*H4</f>
-        <v>4038803464.7396259</v>
+        <v>1996201110.9999998</v>
       </c>
       <c r="C5">
         <f>B5/H3</f>
-        <v>2019.4017323698129</v>
+        <v>1996.2011109999999</v>
       </c>
       <c r="E5">
         <v>2012.0145</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="G6" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="G8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="9" spans="1:9">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="G12">
         <f>LN(B5)/LN(A5)</f>
-        <v>2.9010255270603871</v>
+        <v>2.8086009026348453</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
